--- a/TestExternalPart/data/CopyOfSmokeTest.xlsx
+++ b/TestExternalPart/data/CopyOfSmokeTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://www.google.com.ua/</t>
+    <t>http://epuakhaw0162:8080/KhExternalPreProdPortal/departments;jsessionid=13A61F099C0ACAA5E89275E210A5489C</t>
   </si>
   <si>
-    <t>http://epuakhaw0693:8081/KhExternalPreProdPortal/departments</t>
+    <t>https://www.google.com.ua/</t>
   </si>
 </sst>
 </file>
@@ -378,8 +378,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,32 +428,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>